--- a/aoiConditions/train1Block12.xlsx
+++ b/aoiConditions/train1Block12.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
   </si>
 </sst>
 </file>
